--- a/list_of_commodity/list_of_commodity.xlsx
+++ b/list_of_commodity/list_of_commodity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Cost summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M3*35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M3 螺帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六角對邊: 5.5 厚度: 2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白鐵螺絲 M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,11 +89,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不鏽鋼白鐵 m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M2*7 頭d : 3.2 thick : 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP型 HID 接頭 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mm 端子 3P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMP型 1.5mm端子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 AWG線材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">紅 unit : 1M </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黑 unit : 1M </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥昌電子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓克力板加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>louishoma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10mm 小開關 圓型開關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓型開關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*35 白鐵有頭內六角 unit : 10支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂泰膠水 磁鐵 螺絲 螺帽 木工  塑膠螺絲(全館含稅附發票)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱縮套管</t>
+  </si>
+  <si>
+    <t>4mm(黑) unit : 1m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2 螺帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角對邊: 4 厚度: 1.6 unit : 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">六角對邊: 5.5 厚度: 2.4 unit : 10 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +192,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +248,19 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,25 +293,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="貨幣" xfId="2" builtinId="4"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -506,10 +641,10 @@
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.125" customWidth="1"/>
+    <col min="9" max="9" width="96.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,9 +654,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -544,148 +679,412 @@
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10">
+        <v>318</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>60</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G4" si="0">D3*E3+F3</f>
+        <v>378</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="5">
         <v>20</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
-        <f>D3*E3+F3</f>
+      <c r="F4" s="10">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G8" si="1">D5*E5+F5</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6" si="2">D6*E6+F6</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" ref="G9:G13" si="3">D9*E9+F9</f>
+        <v>210</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <f t="shared" ref="G11" si="4">D11*E11+F11</f>
+        <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
+        <v>60</v>
+      </c>
+      <c r="G12" s="10">
+        <f>D12*E12+F12</f>
+        <v>105</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4:G8" si="0">D4*E4</f>
-        <v>40</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="H13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <f t="shared" ref="G14" si="5">D14*E14+F14</f>
+        <v>21</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15" si="6">D15*E15+F15</f>
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(G3:G14)</f>
+        <v>1112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2" display="m2不鏽鋼螺帽"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId1" display="m2不鏽鋼螺帽"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I14" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="I5" r:id="rId10"/>
+    <hyperlink ref="I15" r:id="rId11"/>
+    <hyperlink ref="I3" r:id="rId12"/>
+    <hyperlink ref="I6" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId14"/>
 </worksheet>
 </file>
--- a/list_of_commodity/list_of_commodity.xlsx
+++ b/list_of_commodity/list_of_commodity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Cost summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M2*7 頭d : 3.2 thick : 1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,89 @@
   <si>
     <t xml:space="preserve">六角對邊: 5.5 厚度: 2.4 unit : 10 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP-WROOM-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32 開發板 WIFI+藍牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD1306 oled 0.96吋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED顯示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INA219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電源監控感測器模組感測器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷你麵包板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂意創客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2*6 頭d : 3.2 thick : 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each One Needed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Needed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5mm 端子 2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2路relay模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps2561光耦合元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V訊號控制5V訊號給Relay module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜邦端子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行壓接用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>統編: 22660624 抬頭:車美仕股份有限公司</t>
   </si>
 </sst>
 </file>
@@ -321,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +421,9 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,465 +708,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="96.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="42.25" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="96.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10">
-        <v>318</v>
-      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
-        <v>60</v>
+      <c r="F3" s="5">
+        <v>3</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G4" si="0">D3*E3+F3</f>
-        <v>378</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>945</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J4" si="0">G3*H3+I3</f>
+        <v>945</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10">
+      <c r="E4" s="5">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F23" si="1" xml:space="preserve"> E4*3</f>
+        <v>36</v>
+      </c>
+      <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="H4" s="5">
+        <v>44</v>
+      </c>
+      <c r="I4" s="10">
+        <v>50</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
         <v>60</v>
       </c>
-      <c r="G4" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="I5" s="10">
+        <v>50</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5:J8" si="2">G5*H5+I5</f>
+        <v>170</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G6" s="10">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="H6" s="5">
+        <v>6</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <f t="shared" ref="J6" si="3">G6*H6+I6</f>
         <v>60</v>
       </c>
-      <c r="G5" s="10">
-        <f t="shared" ref="G5:G8" si="1">D5*E5+F5</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="10">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <f t="shared" ref="G6" si="2">D6*E6+F6</f>
-        <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="10">
         <v>25</v>
       </c>
-      <c r="E8" s="5">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
-        <f t="shared" si="1"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
         <v>25</v>
       </c>
-      <c r="E9" s="5">
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>50</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" ref="J9:J14" si="4">G9*H9+I9</f>
+        <v>175</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="F9" s="10">
+      <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="10">
-        <f t="shared" ref="G9:G13" si="3">D9*E9+F9</f>
-        <v>210</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
+        <f t="shared" ref="J10" si="5">G10*H10+I10</f>
+        <v>100</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>20</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <f t="shared" ref="J12" si="6">G12*H12+I12</f>
+        <v>60</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="10">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4</v>
+      </c>
+      <c r="I13" s="10">
+        <v>50</v>
+      </c>
+      <c r="J13" s="10">
+        <f>G13*H13+I13</f>
+        <v>110</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
+        <f t="shared" ref="J15" si="7">G15*H15+I15</f>
+        <v>35</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <f t="shared" ref="J16:J23" si="8">G16*H16+I16</f>
+        <v>60</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="10">
+        <v>195</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10">
+        <v>50</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="8"/>
+        <v>635</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="10">
+        <v>120</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
-        <f t="shared" si="3"/>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="10">
+        <v>58</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10">
+        <v>50</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="10">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="D11" s="10">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>15</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
-        <f t="shared" ref="G11" si="4">D11*E11+F11</f>
-        <v>45</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10">
-        <v>60</v>
-      </c>
-      <c r="G12" s="10">
-        <f>D12*E12+F12</f>
-        <v>105</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="K20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5">
+        <v>30</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="I24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="10">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="10">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
-        <f t="shared" ref="G14" si="5">D14*E14+F14</f>
-        <v>21</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
-        <f t="shared" ref="G15" si="6">D15*E15+F15</f>
-        <v>36</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="F16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(G3:G14)</f>
-        <v>1112</v>
+      <c r="J24" s="11">
+        <f>SUM(J3:J20)</f>
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" display="m2不鏽鋼螺帽"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="I13" r:id="rId3"/>
-    <hyperlink ref="I14" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="I9" r:id="rId6"/>
-    <hyperlink ref="I10" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I12" r:id="rId9"/>
-    <hyperlink ref="I5" r:id="rId10"/>
-    <hyperlink ref="I15" r:id="rId11"/>
-    <hyperlink ref="I3" r:id="rId12"/>
-    <hyperlink ref="I6" r:id="rId13"/>
+    <hyperlink ref="L7" r:id="rId1" display="m2不鏽鋼螺帽"/>
+    <hyperlink ref="L8" r:id="rId2"/>
+    <hyperlink ref="L14" r:id="rId3"/>
+    <hyperlink ref="L15" r:id="rId4"/>
+    <hyperlink ref="L4" r:id="rId5"/>
+    <hyperlink ref="L9" r:id="rId6"/>
+    <hyperlink ref="L11" r:id="rId7"/>
+    <hyperlink ref="L12" r:id="rId8"/>
+    <hyperlink ref="L13" r:id="rId9"/>
+    <hyperlink ref="L5" r:id="rId10"/>
+    <hyperlink ref="L16" r:id="rId11"/>
+    <hyperlink ref="L3" r:id="rId12"/>
+    <hyperlink ref="L6" r:id="rId13"/>
+    <hyperlink ref="L19" r:id="rId14"/>
+    <hyperlink ref="L20" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L10" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId18"/>
 </worksheet>
 </file>
--- a/list_of_commodity/list_of_commodity.xlsx
+++ b/list_of_commodity/list_of_commodity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>Cost summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sum :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">紅 unit : 1M </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +261,26 @@
   </si>
   <si>
     <t>統編: 22660624 抬頭:車美仕股份有限公司</t>
+  </si>
+  <si>
+    <t>主機電源接頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主機電源接頭端子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28p接頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28p接頭端子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,26 +388,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -400,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,18 +410,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -708,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -734,7 +720,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -749,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -758,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
@@ -790,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -799,14 +787,14 @@
       <c r="F3" s="5">
         <v>3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>945</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
         <f t="shared" ref="J3:J4" si="0">G3*H3+I3</f>
         <v>945</v>
       </c>
@@ -814,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -822,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -834,19 +822,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F23" si="1" xml:space="preserve"> E4*3</f>
+        <f t="shared" ref="F4:F27" si="1" xml:space="preserve"> E4*3</f>
         <v>36</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>2</v>
       </c>
       <c r="H4" s="5">
         <v>44</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>50</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
@@ -868,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5">
         <v>16</v>
@@ -877,16 +865,16 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
       <c r="H5" s="5">
         <v>60</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>50</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" ref="J5:J8" si="2">G5*H5+I5</f>
         <v>170</v>
       </c>
@@ -894,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -905,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="5">
         <v>16</v>
@@ -917,14 +905,14 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>10</v>
       </c>
       <c r="H6" s="5">
         <v>6</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
         <f t="shared" ref="J6" si="3">G6*H6+I6</f>
         <v>60</v>
       </c>
@@ -932,7 +920,7 @@
         <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -946,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -955,14 +943,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>10</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -984,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
@@ -993,14 +981,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>25</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -1016,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
@@ -1031,16 +1019,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>25</v>
       </c>
       <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>50</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" ref="J9:J14" si="4">G9*H9+I9</f>
         <v>175</v>
       </c>
@@ -1048,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1056,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1071,14 +1059,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>20</v>
       </c>
       <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
         <f t="shared" ref="J10" si="5">G10*H10+I10</f>
         <v>100</v>
       </c>
@@ -1086,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1094,13 +1082,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
         <v>5</v>
@@ -1109,14 +1097,14 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>3</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1124,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1132,13 +1120,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5">
         <v>5</v>
@@ -1147,14 +1135,14 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>3</v>
       </c>
       <c r="H12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <f t="shared" ref="J12" si="6">G12*H12+I12</f>
         <v>60</v>
       </c>
@@ -1162,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1170,13 +1158,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1185,16 +1173,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>15</v>
       </c>
       <c r="H13" s="5">
         <v>4</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>50</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>G13*H13+I13</f>
         <v>110</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1210,13 +1198,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1225,14 +1213,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>6</v>
       </c>
       <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1240,7 +1228,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1248,13 +1236,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1263,14 +1251,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>7</v>
       </c>
       <c r="H15" s="5">
         <v>5</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <f t="shared" ref="J15" si="7">G15*H15+I15</f>
         <v>35</v>
       </c>
@@ -1278,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1286,14 +1274,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
@@ -1301,14 +1289,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>12</v>
       </c>
       <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
         <f t="shared" ref="J16:J23" si="8">G16*H16+I16</f>
         <v>60</v>
       </c>
@@ -1316,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1324,14 +1312,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
@@ -1339,16 +1327,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>195</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>50</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" si="8"/>
         <v>635</v>
       </c>
@@ -1356,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1364,14 +1352,14 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
@@ -1379,14 +1367,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>120</v>
       </c>
       <c r="H18" s="5">
         <v>3</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
@@ -1400,14 +1388,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
@@ -1415,16 +1403,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>58</v>
       </c>
       <c r="H19" s="5">
         <v>3</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>50</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="8"/>
         <v>224</v>
       </c>
@@ -1432,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1440,13 +1428,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1455,14 +1443,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>10</v>
       </c>
       <c r="H20" s="5">
         <v>3</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
@@ -1470,48 +1458,55 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>110</v>
+      </c>
       <c r="H21" s="5">
-        <v>3</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="8"/>
+        <v>220</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
@@ -1519,12 +1514,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1535,12 +1530,14 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="5">
         <v>10</v>
@@ -1549,12 +1546,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="5">
         <v>30</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1562,20 +1559,134 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="I24" s="9" t="s">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>9</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="J24" s="11">
-        <f>SUM(J3:J20)</f>
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/list_of_commodity/list_of_commodity.xlsx
+++ b/list_of_commodity/list_of_commodity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>Cost summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>28p接頭端子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro usb to usb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +364,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -396,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +428,14 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -694,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -822,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F27" si="1" xml:space="preserve"> E4*3</f>
+        <f t="shared" ref="F4:F29" si="1" xml:space="preserve"> E4*3</f>
         <v>36</v>
       </c>
       <c r="G4" s="9">
@@ -899,11 +923,11 @@
         <v>38</v>
       </c>
       <c r="E6" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G6" s="9">
         <v>10</v>
@@ -1297,7 +1321,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9">
-        <f t="shared" ref="J16:J23" si="8">G16*H16+I16</f>
+        <f t="shared" ref="J16:J27" si="8">G16*H16+I16</f>
         <v>60</v>
       </c>
       <c r="K16" s="8" t="s">
@@ -1586,6 +1610,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K24" s="8"/>
@@ -1606,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> E25*3</f>
         <v>9</v>
       </c>
       <c r="G25" s="9">
@@ -1630,29 +1655,27 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26" s="9">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="7"/>
@@ -1662,31 +1685,112 @@
         <v>23</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
+      <c r="C27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H27" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J27" s="9">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>120</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>3</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="16">
+        <f>SUM(J3:J29)</f>
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
